--- a/data/Результаты всех методов (Восстановленный) (Восстановленный).xlsx
+++ b/data/Результаты всех методов (Восстановленный) (Восстановленный).xlsx
@@ -27,7 +27,6 @@
     <sheet name="Р-К при α изм. с ш. 0.1" sheetId="34" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5974,6 +5973,1943 @@
           <c:y val="0.57196666142396713"/>
           <c:w val="0.22175537466082235"/>
           <c:h val="0.26751997843003616"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Угол</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> атаки от времени</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6592672338787707E-2"/>
+          <c:y val="2.7545906228766286E-2"/>
+          <c:w val="0.89957112886106194"/>
+          <c:h val="0.90683213402493212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Эйлер при α изм. с шагом 0.01</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Эйлер при α изм. с шагом 0.01'!$I$2:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65691784161522015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0779073899562988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3655554226250555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5675133651758231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7077221243285012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7984042247613412</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8454229166795617</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.851012938843853</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8153743036884431</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7376881266185427</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6159220449643241</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4466086503374134</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2258609530141631</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95116504371796995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.62442268734381112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2567739471090118</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.12604576050811886</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.48258277921325943</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.75808420680499977</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.89369964806841973</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.84776100957915612</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.61681162931531031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.24504086368127426</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.17864254521014358</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54201248115672529</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.73994356668084826</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.70652540103489958</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.44245194730757781</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6376239582177226E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.39989287437915572</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.67788486332216802</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.69344716129854755</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.42904257815419028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6293124710150628E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.45537164526984703</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.68757203362268704</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.59359965033432172</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.20492426512554068</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.29539801872576704</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.65313690872533592</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.67181111589572418</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.32512362119499538</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.21113848540457214</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.63731110744394159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.69397791337726211</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.32654604401056792</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.25812574707366354</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.42233627403865825</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.69904609281387908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-10FF-47FA-93D1-23C1DD349220}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Эйлер при α изм. с шагом 0.001</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Эйлер при α изм. с шагом 0.001'!$I$2:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64431947034094394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0605594697229415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3463936162854366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5476981558420011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6876824814243137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7782474483914117</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.825121798275692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8305077210370657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.794641310164921</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7167627765115006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5948219211057415</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4254173457904602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2048813221455039</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93116698937114162</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.60698503747924881</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24470197953292944</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.1288401197489886</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.47185561612372928</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.73081688754766438</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.85061575077530105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.79603055809753065</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.56996086940120982</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.22010052502332769</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.16707750360412657</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.48870681037942321</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65393433904003628</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.61196020049758937</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.37332759021129835</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5055173614616852E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.33779625053187046</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.5553942519683539</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.55360717191962716</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.3320274220069282</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8405054093527808E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34697698785607933</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.50647098725379625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.42285620048398803</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.13667327802373216</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.21007792165839276</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.44122686546942219</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.43694753018825572</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.20033975224834191</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.13825800714745584</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.38764966443037147</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.40361999988713004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.17769471262402536</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.1515011559233444</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.23928704342608792</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.37903021173735152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-10FF-47FA-93D1-23C1DD349220}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Р-К при α изм. с ш. 0.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Р-К при α изм. с ш. 0.1'!$I$2:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64294740436098718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0586629270161143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3442924036269672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5455197172844326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.68547446274997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7760222585689363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8228771301102105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8282378311368641</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.792344667344292</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7144360349948968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5924688817437975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4230491383239157</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2025349474956577</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92893408826501878</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.60505034596932106</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24342152553254787</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.12902521455217633</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.47048793197980993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.7276164021653575</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.84584251725370396</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.7906196790625527</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.56553692045116766</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.2185078147528573</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.16448605074169723</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.48180578400316221</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.64425892401137141</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.60257112845118055</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.36797852797059832</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6769224913537807E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.32841122914641474</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.54107415122885694</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.53997307469056177</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.32554524200673646</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3482800088079588E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.33136305184862003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.48662608833519883</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.40869841130924028</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1366817365499243</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.19403477895164212</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.41619246327799747</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.41626591255408962</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.19670034899365096</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.12071004317776737</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.35743756792264503</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.37857940080964614</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1746473515874383</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.12827001912825264</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.19253930966656663</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.34250098758927378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-10FF-47FA-93D1-23C1DD349220}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2003333712"/>
+        <c:axId val="2003343696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2003333712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>t, c</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2003343696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2003343696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>α, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>град</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2003333712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50513082285610211"/>
+          <c:y val="0.76606782089994863"/>
+          <c:w val="0.23306218504188364"/>
+          <c:h val="0.12677466029016074"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Угол</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> атаки от времени</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7839350950997315E-2"/>
+          <c:y val="9.2570709410122937E-2"/>
+          <c:w val="0.89697802181786457"/>
+          <c:h val="0.84202570243650987"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>М.Эйлер при α изм. с ш. 0.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'М.Эйлер при α изм. с ш. 0.1'!$I$2:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62320039030084551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1540744822591995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6092133310164198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9997027406023047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.331232242550207</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6050407977861347</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8187994118322712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9673966280228385</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.043724527071058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0395628360500053</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9449539802845339</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7463539507748655</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4286256631284098</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9780306029268806</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3884193495708572</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67176641979896445</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.12496207801064883</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.91534296374172275</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.5733553516274574</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.9490299751750328</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.9156582132193813</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.4338600470988772</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.58201603943610114</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.43414656581627531</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.329724666843036</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8205031630157291</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7140698173335447</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.000041581729626</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.10581216879999918</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.19811164349455</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.8292513268704744</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.6971671965393957</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.8024495572629976</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.49885408235556394</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6006812582774688</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9136217455012998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1985672153081106</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.22849937847725893</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.6009262104887649</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.1058502885862662</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.3658335069660557</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.27560179173626492</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8481310916506166</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2724576056590338</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1158882283902316</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.95081381822935152</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.4979052746594097</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.4457084323051537</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.3239158001452251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39D3-49F1-89B8-824597118EA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>М.Эйлер при α изм. с ш. 0.01</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'М.Эйлер при α изм. с ш. 0.01'!$I$2:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71444400276821107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2916565452974982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7706674747771811</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1717800832363832</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5046930426663123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7723383689310306</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9729933630916605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.10167991406187</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1513167331522118</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1136914381786442</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9785559047769175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7331706315817801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3641711854736425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8614569242089944</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2252358186555397</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47754940302637688</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.32512951864957879</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.0881865800081829</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.6838520385720557</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.9728353476528318</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.8549961813615596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.3171791384560247</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.45925529043721325</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.51231856946916121</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3342168258744416</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7584147526369496</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6329052057631974</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.97015733152565853</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.8002879264696447E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.0152036193760805</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.6203427544160807</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.5932147978773268</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.92104352973956438</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.13642352131749291</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1267935251782939</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5919768316336762</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2933159552067699</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.35741274248242361</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.75770804008902726</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.4805287673107681</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.4218467570878537</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.59515461818029147</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.55893850123900224</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3841745930490885</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.381722456670198</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.53593311005535782</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.64154418268706914</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.9469693267620245</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.412788358523295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-39D3-49F1-89B8-824597118EA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Р-К при α изм. с ш. 0.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Р-К при α изм. с ш. 0.1'!$I$2:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64294740436098718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0586629270161143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3442924036269672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5455197172844326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.68547446274997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7760222585689363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8228771301102105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8282378311368641</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.792344667344292</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7144360349948968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5924688817437975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4230491383239157</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2025349474956577</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92893408826501878</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.60505034596932106</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24342152553254787</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.12902521455217633</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.47048793197980993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.7276164021653575</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.84584251725370396</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.7906196790625527</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.56553692045116766</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.2185078147528573</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.16448605074169723</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.48180578400316221</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.64425892401137141</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.60257112845118055</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.36797852797059832</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6769224913537807E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.32841122914641474</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.54107415122885694</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.53997307469056177</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.32554524200673646</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3482800088079588E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.33136305184862003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.48662608833519883</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.40869841130924028</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1366817365499243</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.19403477895164212</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.41619246327799747</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.41626591255408962</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.19670034899365096</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.12071004317776737</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.35743756792264503</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.37857940080964614</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1746473515874383</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.12827001912825264</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.19253930966656663</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.34250098758927378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-39D3-49F1-89B8-824597118EA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2011346992"/>
+        <c:axId val="2011347824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2011346992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>t, c</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2011347824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2011347824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>α, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>град</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2011346992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6732442294752507E-2"/>
+          <c:y val="0.7688826516905779"/>
+          <c:w val="0.20843041283901456"/>
+          <c:h val="0.12635278955331733"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -18235,6 +20171,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -20123,6 +22139,1038 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -24624,6 +27672,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>389465</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101598</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Диаграмма 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>169332</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>42332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>211665</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Диаграмма 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24892,8 +28004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="82" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="N271" sqref="N271"/>
+    <sheetView tabSelected="1" topLeftCell="A329" zoomScale="90" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="S347" sqref="S347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24907,24 +28019,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="N22" workbookViewId="0"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A2" zoomScale="62" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -28252,24 +31362,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="I1" workbookViewId="0"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" zoomScale="59" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -31597,25 +34707,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="L23" workbookViewId="0"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" zoomScale="61" workbookViewId="0">
+      <selection activeCell="P84" sqref="P84"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -34943,26 +38052,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="M22" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A4" zoomScale="62" workbookViewId="0">
+      <selection activeCell="P90" sqref="P90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -38296,27 +41403,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="J18" zoomScale="60" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" zoomScale="63" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -41645,27 +44752,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" zoomScale="56" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" zoomScale="59" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -44993,27 +48097,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R51"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" zoomScale="61" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -48341,24 +51442,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="M22" workbookViewId="0"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" zoomScale="63" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -51686,24 +54783,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="M22" workbookViewId="0"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A4" zoomScale="63" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -55031,26 +58128,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I51"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A4" zoomScale="62" workbookViewId="0">
+      <selection activeCell="P64" sqref="P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -58378,25 +61473,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="M22" workbookViewId="0"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" zoomScale="63" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -61724,25 +64816,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="G1" workbookViewId="0"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" zoomScale="59" workbookViewId="0">
+      <selection activeCell="O58" sqref="O58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
